--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_en.xlsx
@@ -84,9 +84,6 @@
     <t>Please keep track of the ingredients of all sent products - do it in a lot-based manner.</t>
   </si>
   <si>
-    <t>For questions please contact Dr. Armin Weiser, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
-  </si>
-  <si>
     <t>Type of Business</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
 Incoming Goods</t>
     </r>
   </si>
+  <si>
+    <t>For questions please contact the FoodRisk-Labs team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
+  </si>
 </sst>
 </file>
 
@@ -1337,46 +1337,227 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="39" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1390,6 +1571,25 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="35" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1398,6 +1598,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1405,234 +1608,31 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="30" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2057,166 +2057,166 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.3984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="87" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="3" customWidth="1"/>
-    <col min="15" max="19" width="11.42578125" style="2"/>
-    <col min="20" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="4.3984375" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.86328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="32.73046875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.1328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.265625" style="3" customWidth="1"/>
+    <col min="15" max="19" width="11.3984375" style="2"/>
+    <col min="20" max="16384" width="11.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-    </row>
-    <row r="2" spans="1:19" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-    </row>
-    <row r="3" spans="1:19" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="23" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="35" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="59"/>
-    </row>
-    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="17" t="s">
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="72"/>
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="59"/>
-    </row>
-    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="M5" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="70"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2226,171 +2226,171 @@
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="59"/>
-    </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="I6" s="75"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="59"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
+    </row>
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
-    </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="9" t="s">
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="35" t="s">
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="70" t="s">
         <v>13</v>
       </c>
       <c r="O14" s="4"/>
@@ -2399,53 +2399,53 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="72"/>
+      <c r="B15" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="8" t="s">
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="35"/>
+      <c r="M15" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="70"/>
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="73"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2455,433 +2455,451 @@
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="36"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="59"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="59"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="59"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="59"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="59"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="59"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="59"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="59"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="59"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="59"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="59"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="59"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="59"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="59"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="59"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="59"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="59"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="59"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="59"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="59"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="59"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="59"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="59"/>
-    </row>
-    <row r="40" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="59"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="35"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="35"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="35"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="35"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="35"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="35"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="35"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="35"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" s="35"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" s="35"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="35"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="35"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="35"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33" s="35"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" s="35"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A35" s="35"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36" s="35"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A37" s="35"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="35"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" s="35"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="C15:C16"/>
@@ -2898,29 +2916,11 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A12:N12"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F13 F3 F17:F1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_en.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Production - Fwdtrace" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Production - Fwdtrace'!$A$1:$N$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Production - Fwdtrace'!$A$1:$N$42</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>EAN</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Fill in incoming goods which are already known (see grey fields above).</t>
-  </si>
-  <si>
-    <t>In Column A starting with Line Number 20 please enter the line number of the incoming good being the ingredient of this product. Afterwards, enter product information in columns B to M.</t>
   </si>
   <si>
     <t>Please repeat the incoming good as often as necessary in order to capture all products.</t>
@@ -161,6 +158,15 @@
   </si>
   <si>
     <t>For questions please contact the FoodRisk-Labs team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
+  </si>
+  <si>
+    <t>In Column A starting with Line Number x please enter the line number of the incoming good being the ingredient of this product. Afterwards, enter product information in columns B to M.</t>
+  </si>
+  <si>
+    <t>Digital extracts (e.g. Excel or XML files) of the company database could also be suitable. In this case you do not need to fill this template - please call us to find a solution (BfR FoodRiskLabs-Team, +49 (30) 18412-4444)</t>
+  </si>
+  <si>
+    <t>Then, please assess the data for the next incoming good(s) accordingly.</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1186,6 +1192,43 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1309,7 +1352,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1322,10 +1365,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1357,10 +1396,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1471,6 +1506,21 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="40" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1522,6 +1572,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="39" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1587,41 +1643,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2051,7 +2104,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2063,858 +2116,869 @@
     <col min="2" max="2" width="25.86328125" style="3" customWidth="1"/>
     <col min="3" max="4" width="12.3984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.265625" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1328125" style="3" customWidth="1"/>
     <col min="10" max="10" width="21.86328125" style="3" customWidth="1"/>
     <col min="11" max="11" width="32.73046875" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.1328125" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.86328125" style="3" customWidth="1"/>
     <col min="14" max="14" width="19.265625" style="3" customWidth="1"/>
-    <col min="15" max="19" width="11.3984375" style="2"/>
-    <col min="20" max="16384" width="11.3984375" style="3"/>
+    <col min="15" max="18" width="11.3984375" style="2"/>
+    <col min="19" max="16384" width="11.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="13"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="72" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="80" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="76" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="70" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75" t="s">
+    </row>
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="76"/>
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="75" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="7" t="s">
+      <c r="N5" s="74"/>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="78"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="74"/>
+    </row>
+    <row r="7" spans="1:18" s="12" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+    </row>
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70"/>
+    </row>
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="73"/>
+    </row>
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="69"/>
-    </row>
-    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="73"/>
+    </row>
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
+    </row>
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+    </row>
+    <row r="13" spans="1:18" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="40"/>
+    </row>
+    <row r="14" spans="1:18" s="11" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65"/>
+    </row>
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="62" t="s">
+      <c r="B16" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="87" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="81" t="s">
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="70" t="s">
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="72"/>
-      <c r="B15" s="62" t="s">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="76"/>
+      <c r="B17" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C17" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D17" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E17" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F17" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="62" t="s">
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="85" t="s">
+      <c r="J17" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K17" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="85" t="s">
+      <c r="L17" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="56" t="s">
+      <c r="M17" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="73"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="1" t="s">
+      <c r="N17" s="74"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="77"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" s="35"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" s="35"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="35"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="35"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="35"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="35"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A26" s="35"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" s="35"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="35"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" s="35"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="35"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A31" s="35"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A32" s="35"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A33" s="35"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" s="35"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A36" s="35"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A37" s="35"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A38" s="35"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A39" s="35"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="13"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" s="33"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" s="33"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" s="33"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" s="33"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" s="33"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="32"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="33"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28" s="33"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="32"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" s="33"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="32"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" s="33"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="32"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32" s="33"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="32"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="33"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="32"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A34" s="33"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="32"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A35" s="33"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="32"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="33"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A37" s="33"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="32"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A38" s="33"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="32"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A39" s="33"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="32"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A40" s="33"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="32"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A41" s="33"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="32"/>
+    </row>
+    <row r="42" spans="1:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
+  <mergeCells count="46">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A15:N15"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:N14"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
     <mergeCell ref="A3:N3"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A8:N8"/>
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="A11:N11"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
@@ -2923,15 +2987,15 @@
     <mergeCell ref="A2:N2"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F13 F3 F17:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F15 F3 F19:F1048576">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G13 G3 G17:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G15 G3 G19:G1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H13 H3 H17:H1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H15 H3 H19:H1048576">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_en.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>EAN</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>Information to complete the sheet:</t>
-  </si>
-  <si>
-    <t>Please keep track of the ingredients of all sent products - do it in a lot-based manner.</t>
   </si>
   <si>
     <t>Type of Business</t>
@@ -167,6 +161,9 @@
   </si>
   <si>
     <t>Then, please assess the data for the next incoming good(s) accordingly.</t>
+  </si>
+  <si>
+    <t>Please keep track of the outgoing products of all incoming goods (ingredients) - do it in a lot-based manner.</t>
   </si>
 </sst>
 </file>
@@ -1510,6 +1507,128 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1519,128 +1638,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="30" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2130,141 +2127,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
+      <c r="A1" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
+      <c r="A3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="74" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="76"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="75" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="83" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="83" t="s">
-        <v>17</v>
-      </c>
       <c r="M5" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="74"/>
+        <v>19</v>
+      </c>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="78"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
@@ -2274,12 +2271,12 @@
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="83"/>
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="82"/>
-      <c r="N6" s="74"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="13" t="s">
@@ -2304,111 +2301,111 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="70"/>
+      <c r="A8" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="73"/>
+      <c r="A9" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="73"/>
+      <c r="A10" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
+    </row>
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
+    </row>
+    <row r="13" spans="1:18" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="73"/>
-    </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
-    </row>
-    <row r="13" spans="1:18" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
       <c r="N13" s="84"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2417,7 +2414,7 @@
     </row>
     <row r="14" spans="1:18" s="11" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
@@ -2438,35 +2435,35 @@
       <c r="R14" s="40"/>
     </row>
     <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
+      <c r="A15" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="61"/>
     </row>
     <row r="16" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66" t="s">
+      <c r="A16" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="90" t="s">
         <v>5</v>
       </c>
@@ -2474,12 +2471,12 @@
       <c r="H16" s="90"/>
       <c r="I16" s="90"/>
       <c r="J16" s="79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="74" t="s">
+      <c r="M16" s="78"/>
+      <c r="N16" s="70" t="s">
         <v>13</v>
       </c>
       <c r="O16" s="4"/>
@@ -2488,17 +2485,17 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="76"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="62" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="90" t="s">
@@ -2506,33 +2503,33 @@
       </c>
       <c r="G17" s="90"/>
       <c r="H17" s="90"/>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="88" t="s">
         <v>1</v>
       </c>
       <c r="K17" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="74"/>
+      <c r="M17" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="70"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="77"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2542,12 +2539,12 @@
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="89"/>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="75"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="71"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
